--- a/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
+++ b/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
@@ -69,9 +69,6 @@
     <t>Md Safiul Islam</t>
   </si>
   <si>
-    <t>Masud Rana Jony</t>
-  </si>
-  <si>
     <t>Aminul Islam Tutul</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Mugdho Corporation Grand Total Bonus Amount=</t>
+  </si>
+  <si>
+    <t>Rasel Ahmed</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10">
-        <v>3500</v>
+        <v>7800</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -844,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -859,13 +859,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -874,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="10">
-        <v>2500</v>
+        <v>7200</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -889,31 +889,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="12">
         <f>SUM(D5:D14)</f>
-        <v>37500</v>
+        <v>75300</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -941,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>11</v>
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>11</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -980,13 +980,13 @@
     </row>
     <row r="21" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="13">
         <f>D15+D20</f>
-        <v>48000</v>
+        <v>85800</v>
       </c>
       <c r="E21" s="14"/>
     </row>

--- a/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
+++ b/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8">
-        <v>15500</v>
+        <v>35500</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -774,9 +774,7 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10">
-        <v>7300</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -805,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10">
-        <v>7800</v>
+        <v>4000</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -834,9 +832,7 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10">
-        <v>7300</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -865,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="10">
-        <v>7300</v>
+        <v>2545</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -879,9 +875,7 @@
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10">
-        <v>7200</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -907,7 +901,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="12">
         <f>SUM(D5:D14)</f>
-        <v>75300</v>
+        <v>64945</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -931,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="10">
-        <v>3500</v>
+        <v>7800</v>
       </c>
       <c r="E17" s="9"/>
       <c r="J17" s="11"/>
@@ -947,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -962,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="10">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -974,7 +968,7 @@
       <c r="C20" s="16"/>
       <c r="D20" s="8">
         <f>SUM(D17:D19)</f>
-        <v>10500</v>
+        <v>22400</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -986,7 +980,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="13">
         <f>D15+D20</f>
-        <v>85800</v>
+        <v>87345</v>
       </c>
       <c r="E21" s="14"/>
     </row>

--- a/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
+++ b/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8">
-        <v>35500</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -774,7 +774,9 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -788,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="10">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -818,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="10">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -832,7 +834,9 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -846,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="10">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -861,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="10">
-        <v>2545</v>
+        <v>0</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -901,7 +905,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="12">
         <f>SUM(D5:D14)</f>
-        <v>64945</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -941,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="10">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -956,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="10">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -968,7 +972,7 @@
       <c r="C20" s="16"/>
       <c r="D20" s="8">
         <f>SUM(D17:D19)</f>
-        <v>22400</v>
+        <v>7800</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -980,7 +984,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="13">
         <f>D15+D20</f>
-        <v>87345</v>
+        <v>12800</v>
       </c>
       <c r="E21" s="14"/>
     </row>

--- a/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
+++ b/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
+++ b/Symphony/2021/Others/Salary + Bonus Sheet/Bonus.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Mugdho Corporation</t>
   </si>
   <si>
-    <t>Eid-Ul-Fitr  Bonus 2021</t>
-  </si>
-  <si>
     <t>Symphony</t>
   </si>
   <si>
@@ -93,23 +90,32 @@
     <t>Md Rofiqul Islam</t>
   </si>
   <si>
-    <t>Symphony Total Bonus =</t>
-  </si>
-  <si>
-    <t>Realme Total Bonus =</t>
-  </si>
-  <si>
-    <t>Mugdho Corporation Grand Total Bonus Amount=</t>
-  </si>
-  <si>
     <t>Rasel Ahmed</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Need to Pay</t>
+  </si>
+  <si>
+    <t>Grand Total Payment Amount=</t>
+  </si>
+  <si>
+    <t>Salar August 2021</t>
+  </si>
+  <si>
+    <t>Symphony Total Salary =</t>
+  </si>
+  <si>
+    <t>Realme Total Salary =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +139,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,14 +148,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,18 +178,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -276,63 +297,58 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,39 +358,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,38 +400,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -689,317 +734,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="5">
+        <v>15500</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15500</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F14" si="0">D6-E6</f>
+        <v>7300</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="D7" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7800</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2875</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>4925</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6500</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10070</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>-2770</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7200</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>-2800</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9">
+        <f>SUM(D5:D14)</f>
+        <v>75300</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12">
-        <f>SUM(D5:D14)</f>
-        <v>5000</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>20</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="6">
+        <v>500</v>
+      </c>
+      <c r="F17" s="4">
+        <f>D17-E17</f>
+        <v>7300</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="10">
-        <v>7800</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F20" si="1">D18-E18</f>
+        <v>7300</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7300</v>
+      </c>
+      <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="8">
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>7300</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="11">
         <f>SUM(D17:D19)</f>
-        <v>7800</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+        <v>22400</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>22400</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="13">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33">
         <f>D15+D20</f>
-        <v>12800</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>97700</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="35">
+        <f>F6+F7+F8+F9+F10+F12+F14+F17+F18+F19</f>
+        <v>48825</v>
+      </c>
+      <c r="G21" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
+  <conditionalFormatting sqref="F5:F15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>